--- a/Mapa de Monstruos.xlsx
+++ b/Mapa de Monstruos.xlsx
@@ -8,17 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Espacios de trabajo\Phyton\Con lo colegas\PhytonMaster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505C54DB-B975-4C17-B366-38CC4AD7D704}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D0F5D8-3B18-4816-8C46-92473E5B3157}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -36,18 +42,9 @@
     <t>Cocodrilo</t>
   </si>
   <si>
-    <t>Enajmbre de insectos</t>
-  </si>
-  <si>
     <t>Enjambre de pirañas</t>
   </si>
   <si>
-    <t>Enjambre de murcielagos</t>
-  </si>
-  <si>
-    <t>Escorpion gigante</t>
-  </si>
-  <si>
     <t>Goblin</t>
   </si>
   <si>
@@ -58,14 +55,31 @@
   </si>
   <si>
     <t>Hombre serpiente</t>
+  </si>
+  <si>
+    <t>Enajambre de insectos</t>
+  </si>
+  <si>
+    <t>Escorpión gigante</t>
+  </si>
+  <si>
+    <t>Enjambre de murciélagos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -93,8 +107,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="B4" sqref="B4:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -394,66 +409,237 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f ca="1">RANDBETWEEN(1,3)</f>
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:K6" ca="1" si="0">RANDBETWEEN(1,3)</f>
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ref="B5:B6" ca="1" si="1">RANDBETWEEN(1,3)</f>
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
+      <c r="B6">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Mapa de Monstruos.xlsx
+++ b/Mapa de Monstruos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Espacios de trabajo\Phyton\Con lo colegas\PhytonMaster\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python\PhytonMaster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D0F5D8-3B18-4816-8C46-92473E5B3157}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA64661-96D1-4C03-92A4-CA6CAF8F0760}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -107,9 +107,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,247 +398,250 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:K6"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="12.81640625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
         <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>1</v>
-      </c>
-      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
         <f t="shared" ref="C4:K6" ca="1" si="0">RANDBETWEEN(1,3)</f>
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G4">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="H4">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="I4">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="J4">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="K4">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <f t="shared" ref="B5:B6" ca="1" si="1">RANDBETWEEN(1,3)</f>
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="I5">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K5" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
-      <c r="C6">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K6">
+      <c r="C6" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K6" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
